--- a/Temps En Français.xlsx
+++ b/Temps En Français.xlsx
@@ -14,177 +14,1662 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="552">
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>percevant</t>
+    <t>admettant</t>
+  </si>
+  <si>
+    <t>infusant</t>
+  </si>
+  <si>
+    <t>plantant</t>
+  </si>
+  <si>
+    <t>prêtant</t>
+  </si>
+  <si>
+    <t>tempérant</t>
+  </si>
+  <si>
+    <t>tournant</t>
+  </si>
+  <si>
+    <t>éteignant</t>
+  </si>
+  <si>
+    <t>allumant</t>
+  </si>
+  <si>
+    <t>jurant</t>
+  </si>
+  <si>
+    <t>assouvissant</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>je perçois</t>
-  </si>
-  <si>
-    <t>tu perçois</t>
-  </si>
-  <si>
-    <t>il/elle perçoit</t>
-  </si>
-  <si>
-    <t>nous percevons</t>
-  </si>
-  <si>
-    <t>vous percevez</t>
-  </si>
-  <si>
-    <t>ils/elles perçoivent</t>
-  </si>
-  <si>
-    <t>je percevais</t>
-  </si>
-  <si>
-    <t>tu percevais</t>
-  </si>
-  <si>
-    <t>il/elle percevait</t>
-  </si>
-  <si>
-    <t>nous percevions</t>
-  </si>
-  <si>
-    <t>vous perceviez</t>
-  </si>
-  <si>
-    <t>ils/elles percevaient</t>
-  </si>
-  <si>
-    <t>je percevrai</t>
-  </si>
-  <si>
-    <t>tu percevras</t>
-  </si>
-  <si>
-    <t>il/elle percevra</t>
-  </si>
-  <si>
-    <t>nous percevrons</t>
-  </si>
-  <si>
-    <t>vous percevrez</t>
-  </si>
-  <si>
-    <t>ils/elles percevront</t>
-  </si>
-  <si>
-    <t>j'ai perçu</t>
-  </si>
-  <si>
-    <t>tu as perçu</t>
-  </si>
-  <si>
-    <t>il/elle a perçu</t>
-  </si>
-  <si>
-    <t>nous avons perçu</t>
-  </si>
-  <si>
-    <t>vous avez perçu</t>
-  </si>
-  <si>
-    <t>ils/elles ont perçu</t>
-  </si>
-  <si>
-    <t>j'avais perçu</t>
-  </si>
-  <si>
-    <t>tu avais perçu</t>
-  </si>
-  <si>
-    <t>il/elle avait perçu</t>
-  </si>
-  <si>
-    <t>nous avions perçu</t>
-  </si>
-  <si>
-    <t>vous aviez perçu</t>
-  </si>
-  <si>
-    <t>ils/elles avaient perçu</t>
-  </si>
-  <si>
-    <t>j'aurai perçu</t>
-  </si>
-  <si>
-    <t>tu auras perçu</t>
-  </si>
-  <si>
-    <t>il/elle aura perçu</t>
-  </si>
-  <si>
-    <t>nous aurons perçu</t>
-  </si>
-  <si>
-    <t>vous aurez perçu</t>
-  </si>
-  <si>
-    <t>ils/elles auront perçu</t>
-  </si>
-  <si>
-    <t>que je perçoive</t>
-  </si>
-  <si>
-    <t>que tu perçoives</t>
-  </si>
-  <si>
-    <t>qu'il/elle perçoive</t>
-  </si>
-  <si>
-    <t>que nous percevions</t>
-  </si>
-  <si>
-    <t>que vous perceviez</t>
-  </si>
-  <si>
-    <t>qu'ils/elles perçoivent</t>
-  </si>
-  <si>
-    <t>je percevrais</t>
-  </si>
-  <si>
-    <t>tu percevrais</t>
-  </si>
-  <si>
-    <t>il/elle percevrait</t>
-  </si>
-  <si>
-    <t>nous percevrions</t>
-  </si>
-  <si>
-    <t>vous percevriez</t>
-  </si>
-  <si>
-    <t>ils/elles percevraient</t>
-  </si>
-  <si>
-    <t>j'aurais perçu</t>
-  </si>
-  <si>
-    <t>tu aurais perçu</t>
-  </si>
-  <si>
-    <t>il/elle aurait perçu</t>
-  </si>
-  <si>
-    <t>nous aurions perçu</t>
-  </si>
-  <si>
-    <t>vous auriez perçu</t>
-  </si>
-  <si>
-    <t>ils/elles auraient perçu</t>
+    <t>j'admets</t>
+  </si>
+  <si>
+    <t>j'infuse</t>
+  </si>
+  <si>
+    <t>je plante</t>
+  </si>
+  <si>
+    <t>je prête</t>
+  </si>
+  <si>
+    <t>je tempère</t>
+  </si>
+  <si>
+    <t>je tourne</t>
+  </si>
+  <si>
+    <t>j'éteins</t>
+  </si>
+  <si>
+    <t>j'allume</t>
+  </si>
+  <si>
+    <t>je jure</t>
+  </si>
+  <si>
+    <t>j'assouvis</t>
+  </si>
+  <si>
+    <t>tu admets</t>
+  </si>
+  <si>
+    <t>tu infuses</t>
+  </si>
+  <si>
+    <t>tu plantes</t>
+  </si>
+  <si>
+    <t>tu prêtes</t>
+  </si>
+  <si>
+    <t>tu tempères</t>
+  </si>
+  <si>
+    <t>tu tournes</t>
+  </si>
+  <si>
+    <t>tu éteins</t>
+  </si>
+  <si>
+    <t>tu allumes</t>
+  </si>
+  <si>
+    <t>tu jures</t>
+  </si>
+  <si>
+    <t>tu assouvis</t>
+  </si>
+  <si>
+    <t>il/elle admet</t>
+  </si>
+  <si>
+    <t>il/elle infuse</t>
+  </si>
+  <si>
+    <t>il/elle plante</t>
+  </si>
+  <si>
+    <t>il/elle prête</t>
+  </si>
+  <si>
+    <t>il/elle tempère</t>
+  </si>
+  <si>
+    <t>il/elle tourne</t>
+  </si>
+  <si>
+    <t>il/elle éteint</t>
+  </si>
+  <si>
+    <t>il/elle allume</t>
+  </si>
+  <si>
+    <t>il/elle jure</t>
+  </si>
+  <si>
+    <t>il/elle assouvit</t>
+  </si>
+  <si>
+    <t>nous admettons</t>
+  </si>
+  <si>
+    <t>nous infusons</t>
+  </si>
+  <si>
+    <t>nous plantons</t>
+  </si>
+  <si>
+    <t>nous prêtons</t>
+  </si>
+  <si>
+    <t>nous tempérons</t>
+  </si>
+  <si>
+    <t>nous tournons</t>
+  </si>
+  <si>
+    <t>nous éteignons</t>
+  </si>
+  <si>
+    <t>nous allumons</t>
+  </si>
+  <si>
+    <t>nous jurons</t>
+  </si>
+  <si>
+    <t>nous assouvissons</t>
+  </si>
+  <si>
+    <t>vous admettez</t>
+  </si>
+  <si>
+    <t>vous infusez</t>
+  </si>
+  <si>
+    <t>vous plantez</t>
+  </si>
+  <si>
+    <t>vous prêtez</t>
+  </si>
+  <si>
+    <t>vous tempérez</t>
+  </si>
+  <si>
+    <t>vous tournez</t>
+  </si>
+  <si>
+    <t>vous éteignez</t>
+  </si>
+  <si>
+    <t>vous allumez</t>
+  </si>
+  <si>
+    <t>vous jurez</t>
+  </si>
+  <si>
+    <t>vous assouvissez</t>
+  </si>
+  <si>
+    <t>ils/elles admettent</t>
+  </si>
+  <si>
+    <t>ils/elles infusent</t>
+  </si>
+  <si>
+    <t>ils/elles plantent</t>
+  </si>
+  <si>
+    <t>ils/elles prêtent</t>
+  </si>
+  <si>
+    <t>ils/elles tempèrent</t>
+  </si>
+  <si>
+    <t>ils/elles tournent</t>
+  </si>
+  <si>
+    <t>ils/elles éteignent</t>
+  </si>
+  <si>
+    <t>ils/elles allument</t>
+  </si>
+  <si>
+    <t>ils/elles jurent</t>
+  </si>
+  <si>
+    <t>ils/elles assouvissent</t>
+  </si>
+  <si>
+    <t>j'admettais</t>
+  </si>
+  <si>
+    <t>j'infusais</t>
+  </si>
+  <si>
+    <t>je plantais</t>
+  </si>
+  <si>
+    <t>je prêtais</t>
+  </si>
+  <si>
+    <t>je tempérais</t>
+  </si>
+  <si>
+    <t>je tournais</t>
+  </si>
+  <si>
+    <t>j'éteignais</t>
+  </si>
+  <si>
+    <t>j'allumais</t>
+  </si>
+  <si>
+    <t>je jurais</t>
+  </si>
+  <si>
+    <t>j'assouvissais</t>
+  </si>
+  <si>
+    <t>tu admettais</t>
+  </si>
+  <si>
+    <t>tu infusais</t>
+  </si>
+  <si>
+    <t>tu plantais</t>
+  </si>
+  <si>
+    <t>tu prêtais</t>
+  </si>
+  <si>
+    <t>tu tempérais</t>
+  </si>
+  <si>
+    <t>tu tournais</t>
+  </si>
+  <si>
+    <t>tu éteignais</t>
+  </si>
+  <si>
+    <t>tu allumais</t>
+  </si>
+  <si>
+    <t>tu jurais</t>
+  </si>
+  <si>
+    <t>tu assouvissais</t>
+  </si>
+  <si>
+    <t>il/elle admettait</t>
+  </si>
+  <si>
+    <t>il/elle infusait</t>
+  </si>
+  <si>
+    <t>il/elle plantait</t>
+  </si>
+  <si>
+    <t>il/elle prêtait</t>
+  </si>
+  <si>
+    <t>il/elle tempérait</t>
+  </si>
+  <si>
+    <t>il/elle tournait</t>
+  </si>
+  <si>
+    <t>il/elle éteignait</t>
+  </si>
+  <si>
+    <t>il/elle allumait</t>
+  </si>
+  <si>
+    <t>il/elle jurait</t>
+  </si>
+  <si>
+    <t>il/elle assouvissait</t>
+  </si>
+  <si>
+    <t>nous admettions</t>
+  </si>
+  <si>
+    <t>nous infusions</t>
+  </si>
+  <si>
+    <t>nous plantions</t>
+  </si>
+  <si>
+    <t>nous prêtions</t>
+  </si>
+  <si>
+    <t>nous tempérions</t>
+  </si>
+  <si>
+    <t>nous tournions</t>
+  </si>
+  <si>
+    <t>nous éteignions</t>
+  </si>
+  <si>
+    <t>nous allumions</t>
+  </si>
+  <si>
+    <t>nous jurions</t>
+  </si>
+  <si>
+    <t>nous assouvissions</t>
+  </si>
+  <si>
+    <t>vous admettiez</t>
+  </si>
+  <si>
+    <t>vous infusiez</t>
+  </si>
+  <si>
+    <t>vous plantiez</t>
+  </si>
+  <si>
+    <t>vous prêtiez</t>
+  </si>
+  <si>
+    <t>vous tempériez</t>
+  </si>
+  <si>
+    <t>vous tourniez</t>
+  </si>
+  <si>
+    <t>vous éteigniez</t>
+  </si>
+  <si>
+    <t>vous allumiez</t>
+  </si>
+  <si>
+    <t>vous juriez</t>
+  </si>
+  <si>
+    <t>vous assouvissiez</t>
+  </si>
+  <si>
+    <t>ils/elles admettaient</t>
+  </si>
+  <si>
+    <t>ils/elles infusaient</t>
+  </si>
+  <si>
+    <t>ils/elles plantaient</t>
+  </si>
+  <si>
+    <t>ils/elles prêtaient</t>
+  </si>
+  <si>
+    <t>ils/elles tempéraient</t>
+  </si>
+  <si>
+    <t>ils/elles tournaient</t>
+  </si>
+  <si>
+    <t>ils/elles éteignaient</t>
+  </si>
+  <si>
+    <t>ils/elles allumaient</t>
+  </si>
+  <si>
+    <t>ils/elles juraient</t>
+  </si>
+  <si>
+    <t>ils/elles assouvissaient</t>
+  </si>
+  <si>
+    <t>j'admettrai</t>
+  </si>
+  <si>
+    <t>j'infuserai</t>
+  </si>
+  <si>
+    <t>je planterai</t>
+  </si>
+  <si>
+    <t>je prêterai</t>
+  </si>
+  <si>
+    <t>je tempérerai</t>
+  </si>
+  <si>
+    <t>je tournerai</t>
+  </si>
+  <si>
+    <t>j'éteindrai</t>
+  </si>
+  <si>
+    <t>j'allumerai</t>
+  </si>
+  <si>
+    <t>je jurerai</t>
+  </si>
+  <si>
+    <t>j'assouvirai</t>
+  </si>
+  <si>
+    <t>tu admettras</t>
+  </si>
+  <si>
+    <t>tu infuseras</t>
+  </si>
+  <si>
+    <t>tu planteras</t>
+  </si>
+  <si>
+    <t>tu prêteras</t>
+  </si>
+  <si>
+    <t>tu tempéreras</t>
+  </si>
+  <si>
+    <t>tu tourneras</t>
+  </si>
+  <si>
+    <t>tu éteindras</t>
+  </si>
+  <si>
+    <t>tu allumeras</t>
+  </si>
+  <si>
+    <t>tu jureras</t>
+  </si>
+  <si>
+    <t>tu assouviras</t>
+  </si>
+  <si>
+    <t>il/elle admettra</t>
+  </si>
+  <si>
+    <t>il/elle infusera</t>
+  </si>
+  <si>
+    <t>il/elle plantera</t>
+  </si>
+  <si>
+    <t>il/elle prêtera</t>
+  </si>
+  <si>
+    <t>il/elle tempérera</t>
+  </si>
+  <si>
+    <t>il/elle tournera</t>
+  </si>
+  <si>
+    <t>il/elle éteindra</t>
+  </si>
+  <si>
+    <t>il/elle allumera</t>
+  </si>
+  <si>
+    <t>il/elle jurera</t>
+  </si>
+  <si>
+    <t>il/elle assouvira</t>
+  </si>
+  <si>
+    <t>nous admettrons</t>
+  </si>
+  <si>
+    <t>nous infuserons</t>
+  </si>
+  <si>
+    <t>nous planterons</t>
+  </si>
+  <si>
+    <t>nous prêterons</t>
+  </si>
+  <si>
+    <t>nous tempérerons</t>
+  </si>
+  <si>
+    <t>nous tournerons</t>
+  </si>
+  <si>
+    <t>nous éteindrons</t>
+  </si>
+  <si>
+    <t>nous allumerons</t>
+  </si>
+  <si>
+    <t>nous jurerons</t>
+  </si>
+  <si>
+    <t>nous assouvirons</t>
+  </si>
+  <si>
+    <t>vous admettrez</t>
+  </si>
+  <si>
+    <t>vous infuserez</t>
+  </si>
+  <si>
+    <t>vous planterez</t>
+  </si>
+  <si>
+    <t>vous prêterez</t>
+  </si>
+  <si>
+    <t>vous tempérerez</t>
+  </si>
+  <si>
+    <t>vous tournerez</t>
+  </si>
+  <si>
+    <t>vous éteindrez</t>
+  </si>
+  <si>
+    <t>vous allumerez</t>
+  </si>
+  <si>
+    <t>vous jurerez</t>
+  </si>
+  <si>
+    <t>vous assouvirez</t>
+  </si>
+  <si>
+    <t>ils/elles admettront</t>
+  </si>
+  <si>
+    <t>ils/elles infuseront</t>
+  </si>
+  <si>
+    <t>ils/elles planteront</t>
+  </si>
+  <si>
+    <t>ils/elles prêteront</t>
+  </si>
+  <si>
+    <t>ils/elles tempéreront</t>
+  </si>
+  <si>
+    <t>ils/elles tourneront</t>
+  </si>
+  <si>
+    <t>ils/elles éteindront</t>
+  </si>
+  <si>
+    <t>ils/elles allumeront</t>
+  </si>
+  <si>
+    <t>ils/elles jureront</t>
+  </si>
+  <si>
+    <t>ils/elles assouviront</t>
+  </si>
+  <si>
+    <t>j'ai admis</t>
+  </si>
+  <si>
+    <t>j'ai infusé</t>
+  </si>
+  <si>
+    <t>j'ai planté</t>
+  </si>
+  <si>
+    <t>j'ai prêté</t>
+  </si>
+  <si>
+    <t>j'ai tempéré</t>
+  </si>
+  <si>
+    <t>j'ai tourné</t>
+  </si>
+  <si>
+    <t>j'ai éteint</t>
+  </si>
+  <si>
+    <t>j'ai allumé</t>
+  </si>
+  <si>
+    <t>j'ai juré</t>
+  </si>
+  <si>
+    <t>j'ai assouvi</t>
+  </si>
+  <si>
+    <t>tu as admis</t>
+  </si>
+  <si>
+    <t>tu as infusé</t>
+  </si>
+  <si>
+    <t>tu as planté</t>
+  </si>
+  <si>
+    <t>tu as prêté</t>
+  </si>
+  <si>
+    <t>tu as tempéré</t>
+  </si>
+  <si>
+    <t>tu as tourné</t>
+  </si>
+  <si>
+    <t>tu as éteint</t>
+  </si>
+  <si>
+    <t>tu as allumé</t>
+  </si>
+  <si>
+    <t>tu as juré</t>
+  </si>
+  <si>
+    <t>tu as assouvi</t>
+  </si>
+  <si>
+    <t>il/elle a admis</t>
+  </si>
+  <si>
+    <t>il/elle a infusé</t>
+  </si>
+  <si>
+    <t>il/elle a planté</t>
+  </si>
+  <si>
+    <t>il/elle a prêté</t>
+  </si>
+  <si>
+    <t>il/elle a tempéré</t>
+  </si>
+  <si>
+    <t>il/elle a tourné</t>
+  </si>
+  <si>
+    <t>il/elle a éteint</t>
+  </si>
+  <si>
+    <t>il/elle a allumé</t>
+  </si>
+  <si>
+    <t>il/elle a juré</t>
+  </si>
+  <si>
+    <t>il/elle a assouvi</t>
+  </si>
+  <si>
+    <t>nous avons admis</t>
+  </si>
+  <si>
+    <t>nous avons infusé</t>
+  </si>
+  <si>
+    <t>nous avons planté</t>
+  </si>
+  <si>
+    <t>nous avons prêté</t>
+  </si>
+  <si>
+    <t>nous avons tempéré</t>
+  </si>
+  <si>
+    <t>nous avons tourné</t>
+  </si>
+  <si>
+    <t>nous avons éteint</t>
+  </si>
+  <si>
+    <t>nous avons allumé</t>
+  </si>
+  <si>
+    <t>nous avons juré</t>
+  </si>
+  <si>
+    <t>nous avons assouvi</t>
+  </si>
+  <si>
+    <t>vous avez admis</t>
+  </si>
+  <si>
+    <t>vous avez infusé</t>
+  </si>
+  <si>
+    <t>vous avez planté</t>
+  </si>
+  <si>
+    <t>vous avez prêté</t>
+  </si>
+  <si>
+    <t>vous avez tempéré</t>
+  </si>
+  <si>
+    <t>vous avez tourné</t>
+  </si>
+  <si>
+    <t>vous avez éteint</t>
+  </si>
+  <si>
+    <t>vous avez allumé</t>
+  </si>
+  <si>
+    <t>vous avez juré</t>
+  </si>
+  <si>
+    <t>vous avez assouvi</t>
+  </si>
+  <si>
+    <t>ils/elles ont admis</t>
+  </si>
+  <si>
+    <t>ils/elles ont infusé</t>
+  </si>
+  <si>
+    <t>ils/elles ont planté</t>
+  </si>
+  <si>
+    <t>ils/elles ont prêté</t>
+  </si>
+  <si>
+    <t>ils/elles ont tempéré</t>
+  </si>
+  <si>
+    <t>ils/elles ont tourné</t>
+  </si>
+  <si>
+    <t>ils/elles ont éteint</t>
+  </si>
+  <si>
+    <t>ils/elles ont allumé</t>
+  </si>
+  <si>
+    <t>ils/elles ont juré</t>
+  </si>
+  <si>
+    <t>ils/elles ont assouvi</t>
+  </si>
+  <si>
+    <t>j'avais admis</t>
+  </si>
+  <si>
+    <t>j'avais infusé</t>
+  </si>
+  <si>
+    <t>j'avais planté</t>
+  </si>
+  <si>
+    <t>j'avais prêté</t>
+  </si>
+  <si>
+    <t>j'avais tempéré</t>
+  </si>
+  <si>
+    <t>j'avais tourné</t>
+  </si>
+  <si>
+    <t>j'avais éteint</t>
+  </si>
+  <si>
+    <t>j'avais allumé</t>
+  </si>
+  <si>
+    <t>j'avais juré</t>
+  </si>
+  <si>
+    <t>j'avais assouvi</t>
+  </si>
+  <si>
+    <t>tu avais admis</t>
+  </si>
+  <si>
+    <t>tu avais infusé</t>
+  </si>
+  <si>
+    <t>tu avais planté</t>
+  </si>
+  <si>
+    <t>tu avais prêté</t>
+  </si>
+  <si>
+    <t>tu avais tempéré</t>
+  </si>
+  <si>
+    <t>tu avais tourné</t>
+  </si>
+  <si>
+    <t>tu avais éteint</t>
+  </si>
+  <si>
+    <t>tu avais allumé</t>
+  </si>
+  <si>
+    <t>tu avais juré</t>
+  </si>
+  <si>
+    <t>tu avais assouvi</t>
+  </si>
+  <si>
+    <t>il/elle avait admis</t>
+  </si>
+  <si>
+    <t>il/elle avait infusé</t>
+  </si>
+  <si>
+    <t>il/elle avait planté</t>
+  </si>
+  <si>
+    <t>il/elle avait prêté</t>
+  </si>
+  <si>
+    <t>il/elle avait tempéré</t>
+  </si>
+  <si>
+    <t>il/elle avait tourné</t>
+  </si>
+  <si>
+    <t>il/elle avait éteint</t>
+  </si>
+  <si>
+    <t>il/elle avait allumé</t>
+  </si>
+  <si>
+    <t>il/elle avait juré</t>
+  </si>
+  <si>
+    <t>il/elle avait assouvi</t>
+  </si>
+  <si>
+    <t>nous avions admis</t>
+  </si>
+  <si>
+    <t>nous avions infusé</t>
+  </si>
+  <si>
+    <t>nous avions planté</t>
+  </si>
+  <si>
+    <t>nous avions prêté</t>
+  </si>
+  <si>
+    <t>nous avions tempéré</t>
+  </si>
+  <si>
+    <t>nous avions tourné</t>
+  </si>
+  <si>
+    <t>nous avions éteint</t>
+  </si>
+  <si>
+    <t>nous avions allumé</t>
+  </si>
+  <si>
+    <t>nous avions juré</t>
+  </si>
+  <si>
+    <t>nous avions assouvi</t>
+  </si>
+  <si>
+    <t>vous aviez admis</t>
+  </si>
+  <si>
+    <t>vous aviez infusé</t>
+  </si>
+  <si>
+    <t>vous aviez planté</t>
+  </si>
+  <si>
+    <t>vous aviez prêté</t>
+  </si>
+  <si>
+    <t>vous aviez tempéré</t>
+  </si>
+  <si>
+    <t>vous aviez tourné</t>
+  </si>
+  <si>
+    <t>vous aviez éteint</t>
+  </si>
+  <si>
+    <t>vous aviez allumé</t>
+  </si>
+  <si>
+    <t>vous aviez juré</t>
+  </si>
+  <si>
+    <t>vous aviez assouvi</t>
+  </si>
+  <si>
+    <t>ils/elles avaient admis</t>
+  </si>
+  <si>
+    <t>ils/elles avaient infusé</t>
+  </si>
+  <si>
+    <t>ils/elles avaient planté</t>
+  </si>
+  <si>
+    <t>ils/elles avaient prêté</t>
+  </si>
+  <si>
+    <t>ils/elles avaient tempéré</t>
+  </si>
+  <si>
+    <t>ils/elles avaient tourné</t>
+  </si>
+  <si>
+    <t>ils/elles avaient éteint</t>
+  </si>
+  <si>
+    <t>ils/elles avaient allumé</t>
+  </si>
+  <si>
+    <t>ils/elles avaient juré</t>
+  </si>
+  <si>
+    <t>ils/elles avaient assouvi</t>
+  </si>
+  <si>
+    <t>j'aurai admis</t>
+  </si>
+  <si>
+    <t>j'aurai infusé</t>
+  </si>
+  <si>
+    <t>j'aurai planté</t>
+  </si>
+  <si>
+    <t>j'aurai prêté</t>
+  </si>
+  <si>
+    <t>j'aurai tempéré</t>
+  </si>
+  <si>
+    <t>j'aurai tourné</t>
+  </si>
+  <si>
+    <t>j'aurai éteint</t>
+  </si>
+  <si>
+    <t>j'aurai allumé</t>
+  </si>
+  <si>
+    <t>j'aurai juré</t>
+  </si>
+  <si>
+    <t>j'aurai assouvi</t>
+  </si>
+  <si>
+    <t>tu auras admis</t>
+  </si>
+  <si>
+    <t>tu auras infusé</t>
+  </si>
+  <si>
+    <t>tu auras planté</t>
+  </si>
+  <si>
+    <t>tu auras prêté</t>
+  </si>
+  <si>
+    <t>tu auras tempéré</t>
+  </si>
+  <si>
+    <t>tu auras tourné</t>
+  </si>
+  <si>
+    <t>tu auras éteint</t>
+  </si>
+  <si>
+    <t>tu auras allumé</t>
+  </si>
+  <si>
+    <t>tu auras juré</t>
+  </si>
+  <si>
+    <t>tu auras assouvi</t>
+  </si>
+  <si>
+    <t>il/elle aura admis</t>
+  </si>
+  <si>
+    <t>il/elle aura infusé</t>
+  </si>
+  <si>
+    <t>il/elle aura planté</t>
+  </si>
+  <si>
+    <t>il/elle aura prêté</t>
+  </si>
+  <si>
+    <t>il/elle aura tempéré</t>
+  </si>
+  <si>
+    <t>il/elle aura tourné</t>
+  </si>
+  <si>
+    <t>il/elle aura éteint</t>
+  </si>
+  <si>
+    <t>il/elle aura allumé</t>
+  </si>
+  <si>
+    <t>il/elle aura juré</t>
+  </si>
+  <si>
+    <t>il/elle aura assouvi</t>
+  </si>
+  <si>
+    <t>nous aurons admis</t>
+  </si>
+  <si>
+    <t>nous aurons infusé</t>
+  </si>
+  <si>
+    <t>nous aurons planté</t>
+  </si>
+  <si>
+    <t>nous aurons prêté</t>
+  </si>
+  <si>
+    <t>nous aurons tempéré</t>
+  </si>
+  <si>
+    <t>nous aurons tourné</t>
+  </si>
+  <si>
+    <t>nous aurons éteint</t>
+  </si>
+  <si>
+    <t>nous aurons allumé</t>
+  </si>
+  <si>
+    <t>nous aurons juré</t>
+  </si>
+  <si>
+    <t>nous aurons assouvi</t>
+  </si>
+  <si>
+    <t>vous aurez admis</t>
+  </si>
+  <si>
+    <t>vous aurez infusé</t>
+  </si>
+  <si>
+    <t>vous aurez planté</t>
+  </si>
+  <si>
+    <t>vous aurez prêté</t>
+  </si>
+  <si>
+    <t>vous aurez tempéré</t>
+  </si>
+  <si>
+    <t>vous aurez tourné</t>
+  </si>
+  <si>
+    <t>vous aurez éteint</t>
+  </si>
+  <si>
+    <t>vous aurez allumé</t>
+  </si>
+  <si>
+    <t>vous aurez juré</t>
+  </si>
+  <si>
+    <t>vous aurez assouvi</t>
+  </si>
+  <si>
+    <t>ils/elles auront admis</t>
+  </si>
+  <si>
+    <t>ils/elles auront infusé</t>
+  </si>
+  <si>
+    <t>ils/elles auront planté</t>
+  </si>
+  <si>
+    <t>ils/elles auront prêté</t>
+  </si>
+  <si>
+    <t>ils/elles auront tempéré</t>
+  </si>
+  <si>
+    <t>ils/elles auront tourné</t>
+  </si>
+  <si>
+    <t>ils/elles auront éteint</t>
+  </si>
+  <si>
+    <t>ils/elles auront allumé</t>
+  </si>
+  <si>
+    <t>ils/elles auront juré</t>
+  </si>
+  <si>
+    <t>ils/elles auront assouvi</t>
+  </si>
+  <si>
+    <t>que j'admette</t>
+  </si>
+  <si>
+    <t>que j'infuse</t>
+  </si>
+  <si>
+    <t>que je plante</t>
+  </si>
+  <si>
+    <t>que je prête</t>
+  </si>
+  <si>
+    <t>que je tempère</t>
+  </si>
+  <si>
+    <t>que je tourne</t>
+  </si>
+  <si>
+    <t>que j'éteigne</t>
+  </si>
+  <si>
+    <t>que j'allume</t>
+  </si>
+  <si>
+    <t>que je jure</t>
+  </si>
+  <si>
+    <t>que j'assouvisse</t>
+  </si>
+  <si>
+    <t>que tu admettes</t>
+  </si>
+  <si>
+    <t>que tu infuses</t>
+  </si>
+  <si>
+    <t>que tu plantes</t>
+  </si>
+  <si>
+    <t>que tu prêtes</t>
+  </si>
+  <si>
+    <t>que tu tempères</t>
+  </si>
+  <si>
+    <t>que tu tournes</t>
+  </si>
+  <si>
+    <t>que tu éteignes</t>
+  </si>
+  <si>
+    <t>que tu allumes</t>
+  </si>
+  <si>
+    <t>que tu jures</t>
+  </si>
+  <si>
+    <t>que tu assouvisses</t>
+  </si>
+  <si>
+    <t>qu'il/elle admette</t>
+  </si>
+  <si>
+    <t>qu'il/elle infuse</t>
+  </si>
+  <si>
+    <t>qu'il/elle plante</t>
+  </si>
+  <si>
+    <t>qu'il/elle prête</t>
+  </si>
+  <si>
+    <t>qu'il/elle tempère</t>
+  </si>
+  <si>
+    <t>qu'il/elle tourne</t>
+  </si>
+  <si>
+    <t>qu'il/elle éteigne</t>
+  </si>
+  <si>
+    <t>qu'il/elle allume</t>
+  </si>
+  <si>
+    <t>qu'il/elle jure</t>
+  </si>
+  <si>
+    <t>qu'il/elle assouvisse</t>
+  </si>
+  <si>
+    <t>que nous admettions</t>
+  </si>
+  <si>
+    <t>que nous infusions</t>
+  </si>
+  <si>
+    <t>que nous plantions</t>
+  </si>
+  <si>
+    <t>que nous prêtions</t>
+  </si>
+  <si>
+    <t>que nous tempérions</t>
+  </si>
+  <si>
+    <t>que nous tournions</t>
+  </si>
+  <si>
+    <t>que nous éteignions</t>
+  </si>
+  <si>
+    <t>que nous allumions</t>
+  </si>
+  <si>
+    <t>que nous jurions</t>
+  </si>
+  <si>
+    <t>que nous assouvissions</t>
+  </si>
+  <si>
+    <t>que vous admettiez</t>
+  </si>
+  <si>
+    <t>que vous infusiez</t>
+  </si>
+  <si>
+    <t>que vous plantiez</t>
+  </si>
+  <si>
+    <t>que vous prêtiez</t>
+  </si>
+  <si>
+    <t>que vous tempériez</t>
+  </si>
+  <si>
+    <t>que vous tourniez</t>
+  </si>
+  <si>
+    <t>que vous éteigniez</t>
+  </si>
+  <si>
+    <t>que vous allumiez</t>
+  </si>
+  <si>
+    <t>que vous juriez</t>
+  </si>
+  <si>
+    <t>que vous assouvissiez</t>
+  </si>
+  <si>
+    <t>qu'ils/elles admettent</t>
+  </si>
+  <si>
+    <t>qu'ils/elles infusent</t>
+  </si>
+  <si>
+    <t>qu'ils/elles plantent</t>
+  </si>
+  <si>
+    <t>qu'ils/elles prêtent</t>
+  </si>
+  <si>
+    <t>qu'ils/elles tempèrent</t>
+  </si>
+  <si>
+    <t>qu'ils/elles tournent</t>
+  </si>
+  <si>
+    <t>qu'ils/elles éteignent</t>
+  </si>
+  <si>
+    <t>qu'ils/elles allument</t>
+  </si>
+  <si>
+    <t>qu'ils/elles jurent</t>
+  </si>
+  <si>
+    <t>qu'ils/elles assouvissent</t>
+  </si>
+  <si>
+    <t>j'admettrais</t>
+  </si>
+  <si>
+    <t>j'infuserais</t>
+  </si>
+  <si>
+    <t>je planterais</t>
+  </si>
+  <si>
+    <t>je prêterais</t>
+  </si>
+  <si>
+    <t>je tempérerais</t>
+  </si>
+  <si>
+    <t>je tournerais</t>
+  </si>
+  <si>
+    <t>j'éteindrais</t>
+  </si>
+  <si>
+    <t>j'allumerais</t>
+  </si>
+  <si>
+    <t>je jurerais</t>
+  </si>
+  <si>
+    <t>j'assouvirais</t>
+  </si>
+  <si>
+    <t>tu admettrais</t>
+  </si>
+  <si>
+    <t>tu infuserais</t>
+  </si>
+  <si>
+    <t>tu planterais</t>
+  </si>
+  <si>
+    <t>tu prêterais</t>
+  </si>
+  <si>
+    <t>tu tempérerais</t>
+  </si>
+  <si>
+    <t>tu tournerais</t>
+  </si>
+  <si>
+    <t>tu éteindrais</t>
+  </si>
+  <si>
+    <t>tu allumerais</t>
+  </si>
+  <si>
+    <t>tu jurerais</t>
+  </si>
+  <si>
+    <t>tu assouvirais</t>
+  </si>
+  <si>
+    <t>il/elle admettrait</t>
+  </si>
+  <si>
+    <t>il/elle infuserait</t>
+  </si>
+  <si>
+    <t>il/elle planterait</t>
+  </si>
+  <si>
+    <t>il/elle prêterait</t>
+  </si>
+  <si>
+    <t>il/elle tempérerait</t>
+  </si>
+  <si>
+    <t>il/elle tournerait</t>
+  </si>
+  <si>
+    <t>il/elle éteindrait</t>
+  </si>
+  <si>
+    <t>il/elle allumerait</t>
+  </si>
+  <si>
+    <t>il/elle jurerait</t>
+  </si>
+  <si>
+    <t>il/elle assouvirait</t>
+  </si>
+  <si>
+    <t>nous admettrions</t>
+  </si>
+  <si>
+    <t>nous infuserions</t>
+  </si>
+  <si>
+    <t>nous planterions</t>
+  </si>
+  <si>
+    <t>nous prêterions</t>
+  </si>
+  <si>
+    <t>nous tempérerions</t>
+  </si>
+  <si>
+    <t>nous tournerions</t>
+  </si>
+  <si>
+    <t>nous éteindrions</t>
+  </si>
+  <si>
+    <t>nous allumerions</t>
+  </si>
+  <si>
+    <t>nous jurerions</t>
+  </si>
+  <si>
+    <t>nous assouvirions</t>
+  </si>
+  <si>
+    <t>vous admettriez</t>
+  </si>
+  <si>
+    <t>vous infuseriez</t>
+  </si>
+  <si>
+    <t>vous planteriez</t>
+  </si>
+  <si>
+    <t>vous prêteriez</t>
+  </si>
+  <si>
+    <t>vous tempéreriez</t>
+  </si>
+  <si>
+    <t>vous tourneriez</t>
+  </si>
+  <si>
+    <t>vous éteindriez</t>
+  </si>
+  <si>
+    <t>vous allumeriez</t>
+  </si>
+  <si>
+    <t>vous jureriez</t>
+  </si>
+  <si>
+    <t>vous assouviriez</t>
+  </si>
+  <si>
+    <t>ils/elles admettraient</t>
+  </si>
+  <si>
+    <t>ils/elles infuseraient</t>
+  </si>
+  <si>
+    <t>ils/elles planteraient</t>
+  </si>
+  <si>
+    <t>ils/elles prêteraient</t>
+  </si>
+  <si>
+    <t>ils/elles tempéreraient</t>
+  </si>
+  <si>
+    <t>ils/elles tourneraient</t>
+  </si>
+  <si>
+    <t>ils/elles éteindraient</t>
+  </si>
+  <si>
+    <t>ils/elles allumeraient</t>
+  </si>
+  <si>
+    <t>ils/elles jureraient</t>
+  </si>
+  <si>
+    <t>ils/elles assouviraient</t>
+  </si>
+  <si>
+    <t>j'aurais admis</t>
+  </si>
+  <si>
+    <t>j'aurais infusé</t>
+  </si>
+  <si>
+    <t>j'aurais planté</t>
+  </si>
+  <si>
+    <t>j'aurais prêté</t>
+  </si>
+  <si>
+    <t>j'aurais tempéré</t>
+  </si>
+  <si>
+    <t>j'aurais tourné</t>
+  </si>
+  <si>
+    <t>j'aurais éteint</t>
+  </si>
+  <si>
+    <t>j'aurais allumé</t>
+  </si>
+  <si>
+    <t>j'aurais juré</t>
+  </si>
+  <si>
+    <t>j'aurais assouvi</t>
+  </si>
+  <si>
+    <t>tu aurais admis</t>
+  </si>
+  <si>
+    <t>tu aurais infusé</t>
+  </si>
+  <si>
+    <t>tu aurais planté</t>
+  </si>
+  <si>
+    <t>tu aurais prêté</t>
+  </si>
+  <si>
+    <t>tu aurais tempéré</t>
+  </si>
+  <si>
+    <t>tu aurais tourné</t>
+  </si>
+  <si>
+    <t>tu aurais éteint</t>
+  </si>
+  <si>
+    <t>tu aurais allumé</t>
+  </si>
+  <si>
+    <t>tu aurais juré</t>
+  </si>
+  <si>
+    <t>tu aurais assouvi</t>
+  </si>
+  <si>
+    <t>il/elle aurait admis</t>
+  </si>
+  <si>
+    <t>il/elle aurait infusé</t>
+  </si>
+  <si>
+    <t>il/elle aurait planté</t>
+  </si>
+  <si>
+    <t>il/elle aurait prêté</t>
+  </si>
+  <si>
+    <t>il/elle aurait tempéré</t>
+  </si>
+  <si>
+    <t>il/elle aurait tourné</t>
+  </si>
+  <si>
+    <t>il/elle aurait éteint</t>
+  </si>
+  <si>
+    <t>il/elle aurait allumé</t>
+  </si>
+  <si>
+    <t>il/elle aurait juré</t>
+  </si>
+  <si>
+    <t>il/elle aurait assouvi</t>
+  </si>
+  <si>
+    <t>nous aurions admis</t>
+  </si>
+  <si>
+    <t>nous aurions infusé</t>
+  </si>
+  <si>
+    <t>nous aurions planté</t>
+  </si>
+  <si>
+    <t>nous aurions prêté</t>
+  </si>
+  <si>
+    <t>nous aurions tempéré</t>
+  </si>
+  <si>
+    <t>nous aurions tourné</t>
+  </si>
+  <si>
+    <t>nous aurions éteint</t>
+  </si>
+  <si>
+    <t>nous aurions allumé</t>
+  </si>
+  <si>
+    <t>nous aurions juré</t>
+  </si>
+  <si>
+    <t>nous aurions assouvi</t>
+  </si>
+  <si>
+    <t>vous auriez admis</t>
+  </si>
+  <si>
+    <t>vous auriez infusé</t>
+  </si>
+  <si>
+    <t>vous auriez planté</t>
+  </si>
+  <si>
+    <t>vous auriez prêté</t>
+  </si>
+  <si>
+    <t>vous auriez tempéré</t>
+  </si>
+  <si>
+    <t>vous auriez tourné</t>
+  </si>
+  <si>
+    <t>vous auriez éteint</t>
+  </si>
+  <si>
+    <t>vous auriez allumé</t>
+  </si>
+  <si>
+    <t>vous auriez juré</t>
+  </si>
+  <si>
+    <t>vous auriez assouvi</t>
+  </si>
+  <si>
+    <t>ils/elles auraient admis</t>
+  </si>
+  <si>
+    <t>ils/elles auraient infusé</t>
+  </si>
+  <si>
+    <t>ils/elles auraient planté</t>
+  </si>
+  <si>
+    <t>ils/elles auraient prêté</t>
+  </si>
+  <si>
+    <t>ils/elles auraient tempéré</t>
+  </si>
+  <si>
+    <t>ils/elles auraient tourné</t>
+  </si>
+  <si>
+    <t>ils/elles auraient éteint</t>
+  </si>
+  <si>
+    <t>ils/elles auraient allumé</t>
+  </si>
+  <si>
+    <t>ils/elles auraient juré</t>
+  </si>
+  <si>
+    <t>ils/elles auraient assouvi</t>
   </si>
 </sst>
 </file>
@@ -542,7 +2027,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DF2"/>
+  <dimension ref="A1:DF11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -885,331 +2370,3319 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" t="s">
+        <v>112</v>
+      </c>
+      <c r="X2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>262</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>272</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>282</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>292</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>312</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>332</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>342</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>352</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>362</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>372</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>382</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>392</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>402</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>412</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>432</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>442</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>452</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>462</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>472</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>482</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>492</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>502</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>11</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>512</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>11</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>522</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>11</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>532</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>11</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>542</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:110">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" t="s">
+        <v>113</v>
+      </c>
+      <c r="X3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>283</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>293</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>303</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>313</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>323</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>333</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>343</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>353</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>363</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>373</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>383</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>393</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>403</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>413</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>423</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>433</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>443</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>453</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>463</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>473</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>483</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>493</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>503</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>513</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>523</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>533</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>543</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:110">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>84</v>
+      </c>
+      <c r="R4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" t="s">
+        <v>114</v>
+      </c>
+      <c r="X4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>264</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>274</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>284</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>294</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>304</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>314</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>324</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>334</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>344</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>354</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>364</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>374</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>384</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>394</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>404</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>414</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>424</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>434</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>444</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>454</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>464</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>474</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>484</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>494</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>504</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>11</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>514</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>11</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>524</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>11</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>534</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>11</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>544</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:110">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" t="s">
+        <v>105</v>
+      </c>
+      <c r="V5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" t="s">
+        <v>115</v>
+      </c>
+      <c r="X5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>235</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>265</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>285</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>295</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>305</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>315</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>325</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>335</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>345</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>355</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>365</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>375</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>385</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>395</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>405</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>415</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>425</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>435</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>445</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>455</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>465</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>475</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>485</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>495</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>505</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>11</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>515</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>11</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>525</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>11</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>535</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>11</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>545</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:110">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" t="s">
+        <v>96</v>
+      </c>
+      <c r="T6" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" t="s">
+        <v>106</v>
+      </c>
+      <c r="V6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" t="s">
+        <v>116</v>
+      </c>
+      <c r="X6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>266</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>276</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>286</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>296</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>306</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>316</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>326</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>336</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>346</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>356</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>366</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>376</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>386</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>396</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>406</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>416</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>426</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>436</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>446</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>456</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>466</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>476</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>486</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>496</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>506</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>11</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>516</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>11</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>526</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>11</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>536</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>11</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>546</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:110">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" t="s">
+        <v>107</v>
+      </c>
+      <c r="V7" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" t="s">
+        <v>117</v>
+      </c>
+      <c r="X7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>237</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>247</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>257</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>267</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>277</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>287</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>297</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>307</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>317</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>327</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>337</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>347</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>357</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>367</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>377</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>387</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>397</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>407</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>417</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>427</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>437</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>447</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>457</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>467</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>477</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>487</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>497</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>507</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>11</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>517</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>11</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>527</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>11</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>537</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>11</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>547</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:110">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" t="s">
+        <v>98</v>
+      </c>
+      <c r="T8" t="s">
+        <v>11</v>
+      </c>
+      <c r="U8" t="s">
+        <v>108</v>
+      </c>
+      <c r="V8" t="s">
+        <v>11</v>
+      </c>
+      <c r="W8" t="s">
+        <v>118</v>
+      </c>
+      <c r="X8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>238</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>248</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>258</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>268</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>278</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>288</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>298</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>308</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>318</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>328</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>338</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>348</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>358</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>368</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>378</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>388</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>398</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>408</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>418</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>428</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>438</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>448</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>458</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>468</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>478</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>488</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>498</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>508</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>11</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>518</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>11</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>528</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>11</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>538</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>11</v>
+      </c>
+      <c r="DE8" t="s">
+        <v>548</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:110">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" t="s">
+        <v>99</v>
+      </c>
+      <c r="T9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U9" t="s">
+        <v>109</v>
+      </c>
+      <c r="V9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>249</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>269</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>289</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>309</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>319</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>329</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>339</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>349</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>359</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>369</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>379</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>389</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>399</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>409</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>419</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>429</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>439</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>449</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>459</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>469</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>479</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>489</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>499</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>509</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>11</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>519</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>11</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>529</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>11</v>
+      </c>
+      <c r="DC9" t="s">
+        <v>539</v>
+      </c>
+      <c r="DD9" t="s">
+        <v>11</v>
+      </c>
+      <c r="DE9" t="s">
+        <v>549</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:110">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" t="s">
+        <v>100</v>
+      </c>
+      <c r="T10" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10" t="s">
+        <v>110</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>250</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>260</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>270</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>280</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>290</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>300</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>310</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>320</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>330</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>340</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>350</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>360</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>370</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>380</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>390</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>400</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>410</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>420</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>430</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>440</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>450</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>460</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>470</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>480</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>490</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>500</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>510</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>11</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>520</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>11</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>530</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>11</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>540</v>
+      </c>
+      <c r="DD10" t="s">
+        <v>11</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>550</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:110">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG2" t="s">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="BH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>38</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>40</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA2" t="s">
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="CB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>42</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>43</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>44</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>45</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>46</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>47</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>48</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>49</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>50</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CU2" t="s">
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
         <v>51</v>
       </c>
-      <c r="CV2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>52</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>53</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>54</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>55</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>56</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>2</v>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>91</v>
+      </c>
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" t="s">
+        <v>101</v>
+      </c>
+      <c r="T11" t="s">
+        <v>11</v>
+      </c>
+      <c r="U11" t="s">
+        <v>111</v>
+      </c>
+      <c r="V11" t="s">
+        <v>11</v>
+      </c>
+      <c r="W11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>251</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>261</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>271</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>281</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>291</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>301</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>311</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>321</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>331</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>341</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>351</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>361</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>371</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>381</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>391</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>401</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>411</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>421</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>431</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>441</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>451</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>461</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>471</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>481</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>491</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>501</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>511</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>521</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>11</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>531</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>11</v>
+      </c>
+      <c r="DC11" t="s">
+        <v>541</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>11</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>551</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Temps En Français.xlsx
+++ b/Temps En Français.xlsx
@@ -19,172 +19,172 @@
     <t>0</t>
   </si>
   <si>
-    <t>aspirant</t>
+    <t>manipulant</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>j'aspire</t>
-  </si>
-  <si>
-    <t>tu aspires</t>
-  </si>
-  <si>
-    <t>il/elle aspire</t>
-  </si>
-  <si>
-    <t>nous aspirons</t>
-  </si>
-  <si>
-    <t>vous aspirez</t>
-  </si>
-  <si>
-    <t>ils/elles aspirent</t>
-  </si>
-  <si>
-    <t>j'aspirais</t>
-  </si>
-  <si>
-    <t>tu aspirais</t>
-  </si>
-  <si>
-    <t>il/elle aspirait</t>
-  </si>
-  <si>
-    <t>nous aspirions</t>
-  </si>
-  <si>
-    <t>vous aspiriez</t>
-  </si>
-  <si>
-    <t>ils/elles aspiraient</t>
-  </si>
-  <si>
-    <t>j'aspirerai</t>
-  </si>
-  <si>
-    <t>tu aspireras</t>
-  </si>
-  <si>
-    <t>il/elle aspirera</t>
-  </si>
-  <si>
-    <t>nous aspirerons</t>
-  </si>
-  <si>
-    <t>vous aspirerez</t>
-  </si>
-  <si>
-    <t>ils/elles aspireront</t>
-  </si>
-  <si>
-    <t>j'ai aspiré</t>
-  </si>
-  <si>
-    <t>tu as aspiré</t>
-  </si>
-  <si>
-    <t>il/elle a aspiré</t>
-  </si>
-  <si>
-    <t>nous avons aspiré</t>
-  </si>
-  <si>
-    <t>vous avez aspiré</t>
-  </si>
-  <si>
-    <t>ils/elles ont aspiré</t>
-  </si>
-  <si>
-    <t>j'avais aspiré</t>
-  </si>
-  <si>
-    <t>tu avais aspiré</t>
-  </si>
-  <si>
-    <t>il/elle avait aspiré</t>
-  </si>
-  <si>
-    <t>nous avions aspiré</t>
-  </si>
-  <si>
-    <t>vous aviez aspiré</t>
-  </si>
-  <si>
-    <t>ils/elles avaient aspiré</t>
-  </si>
-  <si>
-    <t>j'aurai aspiré</t>
-  </si>
-  <si>
-    <t>tu auras aspiré</t>
-  </si>
-  <si>
-    <t>il/elle aura aspiré</t>
-  </si>
-  <si>
-    <t>nous aurons aspiré</t>
-  </si>
-  <si>
-    <t>vous aurez aspiré</t>
-  </si>
-  <si>
-    <t>ils/elles auront aspiré</t>
-  </si>
-  <si>
-    <t>que j'aspire</t>
-  </si>
-  <si>
-    <t>que tu aspires</t>
-  </si>
-  <si>
-    <t>qu'il/elle aspire</t>
-  </si>
-  <si>
-    <t>que nous aspirions</t>
-  </si>
-  <si>
-    <t>que vous aspiriez</t>
-  </si>
-  <si>
-    <t>qu'ils/elles aspirent</t>
-  </si>
-  <si>
-    <t>j'aspirerais</t>
-  </si>
-  <si>
-    <t>tu aspirerais</t>
-  </si>
-  <si>
-    <t>il/elle aspirerait</t>
-  </si>
-  <si>
-    <t>nous aspirerions</t>
-  </si>
-  <si>
-    <t>vous aspireriez</t>
-  </si>
-  <si>
-    <t>ils/elles aspireraient</t>
-  </si>
-  <si>
-    <t>j'aurais aspiré</t>
-  </si>
-  <si>
-    <t>tu aurais aspiré</t>
-  </si>
-  <si>
-    <t>il/elle aurait aspiré</t>
-  </si>
-  <si>
-    <t>nous aurions aspiré</t>
-  </si>
-  <si>
-    <t>vous auriez aspiré</t>
-  </si>
-  <si>
-    <t>ils/elles auraient aspiré</t>
+    <t>je manipule</t>
+  </si>
+  <si>
+    <t>tu manipules</t>
+  </si>
+  <si>
+    <t>il/elle manipule</t>
+  </si>
+  <si>
+    <t>nous manipulons</t>
+  </si>
+  <si>
+    <t>vous manipulez</t>
+  </si>
+  <si>
+    <t>ils/elles manipulent</t>
+  </si>
+  <si>
+    <t>je manipulais</t>
+  </si>
+  <si>
+    <t>tu manipulais</t>
+  </si>
+  <si>
+    <t>il/elle manipulait</t>
+  </si>
+  <si>
+    <t>nous manipulions</t>
+  </si>
+  <si>
+    <t>vous manipuliez</t>
+  </si>
+  <si>
+    <t>ils/elles manipulaient</t>
+  </si>
+  <si>
+    <t>je manipulerai</t>
+  </si>
+  <si>
+    <t>tu manipuleras</t>
+  </si>
+  <si>
+    <t>il/elle manipulera</t>
+  </si>
+  <si>
+    <t>nous manipulerons</t>
+  </si>
+  <si>
+    <t>vous manipulerez</t>
+  </si>
+  <si>
+    <t>ils/elles manipuleront</t>
+  </si>
+  <si>
+    <t>j'ai manipulé</t>
+  </si>
+  <si>
+    <t>tu as manipulé</t>
+  </si>
+  <si>
+    <t>il/elle a manipulé</t>
+  </si>
+  <si>
+    <t>nous avons manipulé</t>
+  </si>
+  <si>
+    <t>vous avez manipulé</t>
+  </si>
+  <si>
+    <t>ils/elles ont manipulé</t>
+  </si>
+  <si>
+    <t>j'avais manipulé</t>
+  </si>
+  <si>
+    <t>tu avais manipulé</t>
+  </si>
+  <si>
+    <t>il/elle avait manipulé</t>
+  </si>
+  <si>
+    <t>nous avions manipulé</t>
+  </si>
+  <si>
+    <t>vous aviez manipulé</t>
+  </si>
+  <si>
+    <t>ils/elles avaient manipulé</t>
+  </si>
+  <si>
+    <t>j'aurai manipulé</t>
+  </si>
+  <si>
+    <t>tu auras manipulé</t>
+  </si>
+  <si>
+    <t>il/elle aura manipulé</t>
+  </si>
+  <si>
+    <t>nous aurons manipulé</t>
+  </si>
+  <si>
+    <t>vous aurez manipulé</t>
+  </si>
+  <si>
+    <t>ils/elles auront manipulé</t>
+  </si>
+  <si>
+    <t>que je manipule</t>
+  </si>
+  <si>
+    <t>que tu manipules</t>
+  </si>
+  <si>
+    <t>qu'il/elle manipule</t>
+  </si>
+  <si>
+    <t>que nous manipulions</t>
+  </si>
+  <si>
+    <t>que vous manipuliez</t>
+  </si>
+  <si>
+    <t>qu'ils/elles manipulent</t>
+  </si>
+  <si>
+    <t>je manipulerais</t>
+  </si>
+  <si>
+    <t>tu manipulerais</t>
+  </si>
+  <si>
+    <t>il/elle manipulerait</t>
+  </si>
+  <si>
+    <t>nous manipulerions</t>
+  </si>
+  <si>
+    <t>vous manipuleriez</t>
+  </si>
+  <si>
+    <t>ils/elles manipuleraient</t>
+  </si>
+  <si>
+    <t>j'aurais manipulé</t>
+  </si>
+  <si>
+    <t>tu aurais manipulé</t>
+  </si>
+  <si>
+    <t>il/elle aurait manipulé</t>
+  </si>
+  <si>
+    <t>nous aurions manipulé</t>
+  </si>
+  <si>
+    <t>vous auriez manipulé</t>
+  </si>
+  <si>
+    <t>ils/elles auraient manipulé</t>
   </si>
 </sst>
 </file>

--- a/Temps En Français.xlsx
+++ b/Temps En Français.xlsx
@@ -19,172 +19,172 @@
     <t>0</t>
   </si>
   <si>
-    <t>manipulant</t>
+    <t>enlevant</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>je manipule</t>
-  </si>
-  <si>
-    <t>tu manipules</t>
-  </si>
-  <si>
-    <t>il/elle manipule</t>
-  </si>
-  <si>
-    <t>nous manipulons</t>
-  </si>
-  <si>
-    <t>vous manipulez</t>
-  </si>
-  <si>
-    <t>ils/elles manipulent</t>
-  </si>
-  <si>
-    <t>je manipulais</t>
-  </si>
-  <si>
-    <t>tu manipulais</t>
-  </si>
-  <si>
-    <t>il/elle manipulait</t>
-  </si>
-  <si>
-    <t>nous manipulions</t>
-  </si>
-  <si>
-    <t>vous manipuliez</t>
-  </si>
-  <si>
-    <t>ils/elles manipulaient</t>
-  </si>
-  <si>
-    <t>je manipulerai</t>
-  </si>
-  <si>
-    <t>tu manipuleras</t>
-  </si>
-  <si>
-    <t>il/elle manipulera</t>
-  </si>
-  <si>
-    <t>nous manipulerons</t>
-  </si>
-  <si>
-    <t>vous manipulerez</t>
-  </si>
-  <si>
-    <t>ils/elles manipuleront</t>
-  </si>
-  <si>
-    <t>j'ai manipulé</t>
-  </si>
-  <si>
-    <t>tu as manipulé</t>
-  </si>
-  <si>
-    <t>il/elle a manipulé</t>
-  </si>
-  <si>
-    <t>nous avons manipulé</t>
-  </si>
-  <si>
-    <t>vous avez manipulé</t>
-  </si>
-  <si>
-    <t>ils/elles ont manipulé</t>
-  </si>
-  <si>
-    <t>j'avais manipulé</t>
-  </si>
-  <si>
-    <t>tu avais manipulé</t>
-  </si>
-  <si>
-    <t>il/elle avait manipulé</t>
-  </si>
-  <si>
-    <t>nous avions manipulé</t>
-  </si>
-  <si>
-    <t>vous aviez manipulé</t>
-  </si>
-  <si>
-    <t>ils/elles avaient manipulé</t>
-  </si>
-  <si>
-    <t>j'aurai manipulé</t>
-  </si>
-  <si>
-    <t>tu auras manipulé</t>
-  </si>
-  <si>
-    <t>il/elle aura manipulé</t>
-  </si>
-  <si>
-    <t>nous aurons manipulé</t>
-  </si>
-  <si>
-    <t>vous aurez manipulé</t>
-  </si>
-  <si>
-    <t>ils/elles auront manipulé</t>
-  </si>
-  <si>
-    <t>que je manipule</t>
-  </si>
-  <si>
-    <t>que tu manipules</t>
-  </si>
-  <si>
-    <t>qu'il/elle manipule</t>
-  </si>
-  <si>
-    <t>que nous manipulions</t>
-  </si>
-  <si>
-    <t>que vous manipuliez</t>
-  </si>
-  <si>
-    <t>qu'ils/elles manipulent</t>
-  </si>
-  <si>
-    <t>je manipulerais</t>
-  </si>
-  <si>
-    <t>tu manipulerais</t>
-  </si>
-  <si>
-    <t>il/elle manipulerait</t>
-  </si>
-  <si>
-    <t>nous manipulerions</t>
-  </si>
-  <si>
-    <t>vous manipuleriez</t>
-  </si>
-  <si>
-    <t>ils/elles manipuleraient</t>
-  </si>
-  <si>
-    <t>j'aurais manipulé</t>
-  </si>
-  <si>
-    <t>tu aurais manipulé</t>
-  </si>
-  <si>
-    <t>il/elle aurait manipulé</t>
-  </si>
-  <si>
-    <t>nous aurions manipulé</t>
-  </si>
-  <si>
-    <t>vous auriez manipulé</t>
-  </si>
-  <si>
-    <t>ils/elles auraient manipulé</t>
+    <t>j'enlève</t>
+  </si>
+  <si>
+    <t>tu enlèves</t>
+  </si>
+  <si>
+    <t>il/elle enlève</t>
+  </si>
+  <si>
+    <t>nous enlevons</t>
+  </si>
+  <si>
+    <t>vous enlevez</t>
+  </si>
+  <si>
+    <t>ils/elles enlèvent</t>
+  </si>
+  <si>
+    <t>j'enlevais</t>
+  </si>
+  <si>
+    <t>tu enlevais</t>
+  </si>
+  <si>
+    <t>il/elle enlevait</t>
+  </si>
+  <si>
+    <t>nous enlevions</t>
+  </si>
+  <si>
+    <t>vous enleviez</t>
+  </si>
+  <si>
+    <t>ils/elles enlevaient</t>
+  </si>
+  <si>
+    <t>j'enlèverai</t>
+  </si>
+  <si>
+    <t>tu enlèveras</t>
+  </si>
+  <si>
+    <t>il/elle enlèvera</t>
+  </si>
+  <si>
+    <t>nous enlèverons</t>
+  </si>
+  <si>
+    <t>vous enlèverez</t>
+  </si>
+  <si>
+    <t>ils/elles enlèveront</t>
+  </si>
+  <si>
+    <t>j'ai enlevé</t>
+  </si>
+  <si>
+    <t>tu as enlevé</t>
+  </si>
+  <si>
+    <t>il/elle a enlevé</t>
+  </si>
+  <si>
+    <t>nous avons enlevé</t>
+  </si>
+  <si>
+    <t>vous avez enlevé</t>
+  </si>
+  <si>
+    <t>ils/elles ont enlevé</t>
+  </si>
+  <si>
+    <t>j'avais enlevé</t>
+  </si>
+  <si>
+    <t>tu avais enlevé</t>
+  </si>
+  <si>
+    <t>il/elle avait enlevé</t>
+  </si>
+  <si>
+    <t>nous avions enlevé</t>
+  </si>
+  <si>
+    <t>vous aviez enlevé</t>
+  </si>
+  <si>
+    <t>ils/elles avaient enlevé</t>
+  </si>
+  <si>
+    <t>j'aurai enlevé</t>
+  </si>
+  <si>
+    <t>tu auras enlevé</t>
+  </si>
+  <si>
+    <t>il/elle aura enlevé</t>
+  </si>
+  <si>
+    <t>nous aurons enlevé</t>
+  </si>
+  <si>
+    <t>vous aurez enlevé</t>
+  </si>
+  <si>
+    <t>ils/elles auront enlevé</t>
+  </si>
+  <si>
+    <t>que j'enlève</t>
+  </si>
+  <si>
+    <t>que tu enlèves</t>
+  </si>
+  <si>
+    <t>qu'il/elle enlève</t>
+  </si>
+  <si>
+    <t>que nous enlevions</t>
+  </si>
+  <si>
+    <t>que vous enleviez</t>
+  </si>
+  <si>
+    <t>qu'ils/elles enlèvent</t>
+  </si>
+  <si>
+    <t>j'enlèverais</t>
+  </si>
+  <si>
+    <t>tu enlèverais</t>
+  </si>
+  <si>
+    <t>il/elle enlèverait</t>
+  </si>
+  <si>
+    <t>nous enlèverions</t>
+  </si>
+  <si>
+    <t>vous enlèveriez</t>
+  </si>
+  <si>
+    <t>ils/elles enlèveraient</t>
+  </si>
+  <si>
+    <t>j'aurais enlevé</t>
+  </si>
+  <si>
+    <t>tu aurais enlevé</t>
+  </si>
+  <si>
+    <t>il/elle aurait enlevé</t>
+  </si>
+  <si>
+    <t>nous aurions enlevé</t>
+  </si>
+  <si>
+    <t>vous auriez enlevé</t>
+  </si>
+  <si>
+    <t>ils/elles auraient enlevé</t>
   </si>
 </sst>
 </file>

--- a/Temps En Français.xlsx
+++ b/Temps En Français.xlsx
@@ -14,177 +14,186 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="60">
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>enlevant</t>
+    <t>interrogeant</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>j'enlève</t>
-  </si>
-  <si>
-    <t>tu enlèves</t>
-  </si>
-  <si>
-    <t>il/elle enlève</t>
-  </si>
-  <si>
-    <t>nous enlevons</t>
-  </si>
-  <si>
-    <t>vous enlevez</t>
-  </si>
-  <si>
-    <t>ils/elles enlèvent</t>
-  </si>
-  <si>
-    <t>j'enlevais</t>
-  </si>
-  <si>
-    <t>tu enlevais</t>
-  </si>
-  <si>
-    <t>il/elle enlevait</t>
-  </si>
-  <si>
-    <t>nous enlevions</t>
-  </si>
-  <si>
-    <t>vous enleviez</t>
-  </si>
-  <si>
-    <t>ils/elles enlevaient</t>
-  </si>
-  <si>
-    <t>j'enlèverai</t>
-  </si>
-  <si>
-    <t>tu enlèveras</t>
-  </si>
-  <si>
-    <t>il/elle enlèvera</t>
-  </si>
-  <si>
-    <t>nous enlèverons</t>
-  </si>
-  <si>
-    <t>vous enlèverez</t>
-  </si>
-  <si>
-    <t>ils/elles enlèveront</t>
-  </si>
-  <si>
-    <t>j'ai enlevé</t>
-  </si>
-  <si>
-    <t>tu as enlevé</t>
-  </si>
-  <si>
-    <t>il/elle a enlevé</t>
-  </si>
-  <si>
-    <t>nous avons enlevé</t>
-  </si>
-  <si>
-    <t>vous avez enlevé</t>
-  </si>
-  <si>
-    <t>ils/elles ont enlevé</t>
-  </si>
-  <si>
-    <t>j'avais enlevé</t>
-  </si>
-  <si>
-    <t>tu avais enlevé</t>
-  </si>
-  <si>
-    <t>il/elle avait enlevé</t>
-  </si>
-  <si>
-    <t>nous avions enlevé</t>
-  </si>
-  <si>
-    <t>vous aviez enlevé</t>
-  </si>
-  <si>
-    <t>ils/elles avaient enlevé</t>
-  </si>
-  <si>
-    <t>j'aurai enlevé</t>
-  </si>
-  <si>
-    <t>tu auras enlevé</t>
-  </si>
-  <si>
-    <t>il/elle aura enlevé</t>
-  </si>
-  <si>
-    <t>nous aurons enlevé</t>
-  </si>
-  <si>
-    <t>vous aurez enlevé</t>
-  </si>
-  <si>
-    <t>ils/elles auront enlevé</t>
-  </si>
-  <si>
-    <t>que j'enlève</t>
-  </si>
-  <si>
-    <t>que tu enlèves</t>
-  </si>
-  <si>
-    <t>qu'il/elle enlève</t>
-  </si>
-  <si>
-    <t>que nous enlevions</t>
-  </si>
-  <si>
-    <t>que vous enleviez</t>
-  </si>
-  <si>
-    <t>qu'ils/elles enlèvent</t>
-  </si>
-  <si>
-    <t>j'enlèverais</t>
-  </si>
-  <si>
-    <t>tu enlèverais</t>
-  </si>
-  <si>
-    <t>il/elle enlèverait</t>
-  </si>
-  <si>
-    <t>nous enlèverions</t>
-  </si>
-  <si>
-    <t>vous enlèveriez</t>
-  </si>
-  <si>
-    <t>ils/elles enlèveraient</t>
-  </si>
-  <si>
-    <t>j'aurais enlevé</t>
-  </si>
-  <si>
-    <t>tu aurais enlevé</t>
-  </si>
-  <si>
-    <t>il/elle aurait enlevé</t>
-  </si>
-  <si>
-    <t>nous aurions enlevé</t>
-  </si>
-  <si>
-    <t>vous auriez enlevé</t>
-  </si>
-  <si>
-    <t>ils/elles auraient enlevé</t>
+    <t>interroge</t>
+  </si>
+  <si>
+    <t>interrogeons</t>
+  </si>
+  <si>
+    <t>interrogez</t>
+  </si>
+  <si>
+    <t>j'interroge</t>
+  </si>
+  <si>
+    <t>tu interroges</t>
+  </si>
+  <si>
+    <t>il/elle interroge</t>
+  </si>
+  <si>
+    <t>nous interrogeons</t>
+  </si>
+  <si>
+    <t>vous interrogez</t>
+  </si>
+  <si>
+    <t>ils/elles interrogent</t>
+  </si>
+  <si>
+    <t>j'interrogeais</t>
+  </si>
+  <si>
+    <t>tu interrogeais</t>
+  </si>
+  <si>
+    <t>il/elle interrogeait</t>
+  </si>
+  <si>
+    <t>nous interrogions</t>
+  </si>
+  <si>
+    <t>vous interrogiez</t>
+  </si>
+  <si>
+    <t>ils/elles interrogeaient</t>
+  </si>
+  <si>
+    <t>j'interrogerai</t>
+  </si>
+  <si>
+    <t>tu interrogeras</t>
+  </si>
+  <si>
+    <t>il/elle interrogera</t>
+  </si>
+  <si>
+    <t>nous interrogerons</t>
+  </si>
+  <si>
+    <t>vous interrogerez</t>
+  </si>
+  <si>
+    <t>ils/elles interrogeront</t>
+  </si>
+  <si>
+    <t>j'ai interrogé</t>
+  </si>
+  <si>
+    <t>tu as interrogé</t>
+  </si>
+  <si>
+    <t>il/elle a interrogé</t>
+  </si>
+  <si>
+    <t>nous avons interrogé</t>
+  </si>
+  <si>
+    <t>vous avez interrogé</t>
+  </si>
+  <si>
+    <t>ils/elles ont interrogé</t>
+  </si>
+  <si>
+    <t>j'avais interrogé</t>
+  </si>
+  <si>
+    <t>tu avais interrogé</t>
+  </si>
+  <si>
+    <t>il/elle avait interrogé</t>
+  </si>
+  <si>
+    <t>nous avions interrogé</t>
+  </si>
+  <si>
+    <t>vous aviez interrogé</t>
+  </si>
+  <si>
+    <t>ils/elles avaient interrogé</t>
+  </si>
+  <si>
+    <t>j'aurai interrogé</t>
+  </si>
+  <si>
+    <t>tu auras interrogé</t>
+  </si>
+  <si>
+    <t>il/elle aura interrogé</t>
+  </si>
+  <si>
+    <t>nous aurons interrogé</t>
+  </si>
+  <si>
+    <t>vous aurez interrogé</t>
+  </si>
+  <si>
+    <t>ils/elles auront interrogé</t>
+  </si>
+  <si>
+    <t>que j'interroge</t>
+  </si>
+  <si>
+    <t>que tu interroges</t>
+  </si>
+  <si>
+    <t>qu'il/elle interroge</t>
+  </si>
+  <si>
+    <t>que nous interrogions</t>
+  </si>
+  <si>
+    <t>que vous interrogiez</t>
+  </si>
+  <si>
+    <t>qu'ils/elles interrogent</t>
+  </si>
+  <si>
+    <t>j'interrogerais</t>
+  </si>
+  <si>
+    <t>tu interrogerais</t>
+  </si>
+  <si>
+    <t>il/elle interrogerait</t>
+  </si>
+  <si>
+    <t>nous interrogerions</t>
+  </si>
+  <si>
+    <t>vous interrogeriez</t>
+  </si>
+  <si>
+    <t>ils/elles interrogeraient</t>
+  </si>
+  <si>
+    <t>j'aurais interrogé</t>
+  </si>
+  <si>
+    <t>tu aurais interrogé</t>
+  </si>
+  <si>
+    <t>il/elle aurait interrogé</t>
+  </si>
+  <si>
+    <t>nous aurions interrogé</t>
+  </si>
+  <si>
+    <t>vous auriez interrogé</t>
+  </si>
+  <si>
+    <t>ils/elles auraient interrogé</t>
   </si>
 </sst>
 </file>
@@ -542,13 +551,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DF2"/>
+  <dimension ref="A1:DL2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:110">
+    <row r="1" spans="1:116">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,8 +888,26 @@
       <c r="DF1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="DG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:110">
+    <row r="2" spans="1:116">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1209,6 +1236,24 @@
         <v>56</v>
       </c>
       <c r="DF2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>57</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>2</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>59</v>
+      </c>
+      <c r="DL2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Temps En Français.xlsx
+++ b/Temps En Français.xlsx
@@ -14,186 +14,708 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="234">
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>interrogeant</t>
+    <t>rétrogradant</t>
+  </si>
+  <si>
+    <t>remboursant</t>
+  </si>
+  <si>
+    <t>retenant</t>
+  </si>
+  <si>
+    <t>se tenant</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>interroge</t>
-  </si>
-  <si>
-    <t>interrogeons</t>
-  </si>
-  <si>
-    <t>interrogez</t>
-  </si>
-  <si>
-    <t>j'interroge</t>
-  </si>
-  <si>
-    <t>tu interroges</t>
-  </si>
-  <si>
-    <t>il/elle interroge</t>
-  </si>
-  <si>
-    <t>nous interrogeons</t>
-  </si>
-  <si>
-    <t>vous interrogez</t>
-  </si>
-  <si>
-    <t>ils/elles interrogent</t>
-  </si>
-  <si>
-    <t>j'interrogeais</t>
-  </si>
-  <si>
-    <t>tu interrogeais</t>
-  </si>
-  <si>
-    <t>il/elle interrogeait</t>
-  </si>
-  <si>
-    <t>nous interrogions</t>
-  </si>
-  <si>
-    <t>vous interrogiez</t>
-  </si>
-  <si>
-    <t>ils/elles interrogeaient</t>
-  </si>
-  <si>
-    <t>j'interrogerai</t>
-  </si>
-  <si>
-    <t>tu interrogeras</t>
-  </si>
-  <si>
-    <t>il/elle interrogera</t>
-  </si>
-  <si>
-    <t>nous interrogerons</t>
-  </si>
-  <si>
-    <t>vous interrogerez</t>
-  </si>
-  <si>
-    <t>ils/elles interrogeront</t>
-  </si>
-  <si>
-    <t>j'ai interrogé</t>
-  </si>
-  <si>
-    <t>tu as interrogé</t>
-  </si>
-  <si>
-    <t>il/elle a interrogé</t>
-  </si>
-  <si>
-    <t>nous avons interrogé</t>
-  </si>
-  <si>
-    <t>vous avez interrogé</t>
-  </si>
-  <si>
-    <t>ils/elles ont interrogé</t>
-  </si>
-  <si>
-    <t>j'avais interrogé</t>
-  </si>
-  <si>
-    <t>tu avais interrogé</t>
-  </si>
-  <si>
-    <t>il/elle avait interrogé</t>
-  </si>
-  <si>
-    <t>nous avions interrogé</t>
-  </si>
-  <si>
-    <t>vous aviez interrogé</t>
-  </si>
-  <si>
-    <t>ils/elles avaient interrogé</t>
-  </si>
-  <si>
-    <t>j'aurai interrogé</t>
-  </si>
-  <si>
-    <t>tu auras interrogé</t>
-  </si>
-  <si>
-    <t>il/elle aura interrogé</t>
-  </si>
-  <si>
-    <t>nous aurons interrogé</t>
-  </si>
-  <si>
-    <t>vous aurez interrogé</t>
-  </si>
-  <si>
-    <t>ils/elles auront interrogé</t>
-  </si>
-  <si>
-    <t>que j'interroge</t>
-  </si>
-  <si>
-    <t>que tu interroges</t>
-  </si>
-  <si>
-    <t>qu'il/elle interroge</t>
-  </si>
-  <si>
-    <t>que nous interrogions</t>
-  </si>
-  <si>
-    <t>que vous interrogiez</t>
-  </si>
-  <si>
-    <t>qu'ils/elles interrogent</t>
-  </si>
-  <si>
-    <t>j'interrogerais</t>
-  </si>
-  <si>
-    <t>tu interrogerais</t>
-  </si>
-  <si>
-    <t>il/elle interrogerait</t>
-  </si>
-  <si>
-    <t>nous interrogerions</t>
-  </si>
-  <si>
-    <t>vous interrogeriez</t>
-  </si>
-  <si>
-    <t>ils/elles interrogeraient</t>
-  </si>
-  <si>
-    <t>j'aurais interrogé</t>
-  </si>
-  <si>
-    <t>tu aurais interrogé</t>
-  </si>
-  <si>
-    <t>il/elle aurait interrogé</t>
-  </si>
-  <si>
-    <t>nous aurions interrogé</t>
-  </si>
-  <si>
-    <t>vous auriez interrogé</t>
-  </si>
-  <si>
-    <t>ils/elles auraient interrogé</t>
+    <t>rétrograde</t>
+  </si>
+  <si>
+    <t>rembourse</t>
+  </si>
+  <si>
+    <t>retiens</t>
+  </si>
+  <si>
+    <t>tiens-toi</t>
+  </si>
+  <si>
+    <t>rétrogradons</t>
+  </si>
+  <si>
+    <t>remboursons</t>
+  </si>
+  <si>
+    <t>retenons</t>
+  </si>
+  <si>
+    <t>tenons-nous</t>
+  </si>
+  <si>
+    <t>rétrogradez</t>
+  </si>
+  <si>
+    <t>remboursez</t>
+  </si>
+  <si>
+    <t>retenez</t>
+  </si>
+  <si>
+    <t>tenez-vous</t>
+  </si>
+  <si>
+    <t>je rétrograde</t>
+  </si>
+  <si>
+    <t>je rembourse</t>
+  </si>
+  <si>
+    <t>je retiens</t>
+  </si>
+  <si>
+    <t>je me tiens</t>
+  </si>
+  <si>
+    <t>tu rétrogrades</t>
+  </si>
+  <si>
+    <t>tu rembourses</t>
+  </si>
+  <si>
+    <t>tu retiens</t>
+  </si>
+  <si>
+    <t>tu te tiens</t>
+  </si>
+  <si>
+    <t>il/elle rétrograde</t>
+  </si>
+  <si>
+    <t>il/elle rembourse</t>
+  </si>
+  <si>
+    <t>il/elle retient</t>
+  </si>
+  <si>
+    <t>il/elle se tient</t>
+  </si>
+  <si>
+    <t>nous rétrogradons</t>
+  </si>
+  <si>
+    <t>nous remboursons</t>
+  </si>
+  <si>
+    <t>nous retenons</t>
+  </si>
+  <si>
+    <t>nous nous tenons</t>
+  </si>
+  <si>
+    <t>vous rétrogradez</t>
+  </si>
+  <si>
+    <t>vous remboursez</t>
+  </si>
+  <si>
+    <t>vous retenez</t>
+  </si>
+  <si>
+    <t>vous vous tenez</t>
+  </si>
+  <si>
+    <t>ils/elles rétrogradent</t>
+  </si>
+  <si>
+    <t>ils/elles remboursent</t>
+  </si>
+  <si>
+    <t>ils/elles retiennent</t>
+  </si>
+  <si>
+    <t>ils/elles se tiennent</t>
+  </si>
+  <si>
+    <t>je rétrogradais</t>
+  </si>
+  <si>
+    <t>je remboursais</t>
+  </si>
+  <si>
+    <t>je retenais</t>
+  </si>
+  <si>
+    <t>je me tenais</t>
+  </si>
+  <si>
+    <t>tu rétrogradais</t>
+  </si>
+  <si>
+    <t>tu remboursais</t>
+  </si>
+  <si>
+    <t>tu retenais</t>
+  </si>
+  <si>
+    <t>tu te tenais</t>
+  </si>
+  <si>
+    <t>il/elle rétrogradait</t>
+  </si>
+  <si>
+    <t>il/elle remboursait</t>
+  </si>
+  <si>
+    <t>il/elle retenait</t>
+  </si>
+  <si>
+    <t>il/elle se tenait</t>
+  </si>
+  <si>
+    <t>nous rétrogradions</t>
+  </si>
+  <si>
+    <t>nous remboursions</t>
+  </si>
+  <si>
+    <t>nous retenions</t>
+  </si>
+  <si>
+    <t>nous nous tenions</t>
+  </si>
+  <si>
+    <t>vous rétrogradiez</t>
+  </si>
+  <si>
+    <t>vous remboursiez</t>
+  </si>
+  <si>
+    <t>vous reteniez</t>
+  </si>
+  <si>
+    <t>vous vous teniez</t>
+  </si>
+  <si>
+    <t>ils/elles rétrogradaient</t>
+  </si>
+  <si>
+    <t>ils/elles remboursaient</t>
+  </si>
+  <si>
+    <t>ils/elles retenaient</t>
+  </si>
+  <si>
+    <t>ils/elles se tenaient</t>
+  </si>
+  <si>
+    <t>je rétrograderai</t>
+  </si>
+  <si>
+    <t>je rembourserai</t>
+  </si>
+  <si>
+    <t>je retiendrai</t>
+  </si>
+  <si>
+    <t>je me tiendrai</t>
+  </si>
+  <si>
+    <t>tu rétrograderas</t>
+  </si>
+  <si>
+    <t>tu rembourseras</t>
+  </si>
+  <si>
+    <t>tu retiendras</t>
+  </si>
+  <si>
+    <t>tu te tiendras</t>
+  </si>
+  <si>
+    <t>il/elle rétrogradera</t>
+  </si>
+  <si>
+    <t>il/elle remboursera</t>
+  </si>
+  <si>
+    <t>il/elle retiendra</t>
+  </si>
+  <si>
+    <t>il/elle se tiendra</t>
+  </si>
+  <si>
+    <t>nous rétrograderons</t>
+  </si>
+  <si>
+    <t>nous rembourserons</t>
+  </si>
+  <si>
+    <t>nous retiendrons</t>
+  </si>
+  <si>
+    <t>nous nous tiendrons</t>
+  </si>
+  <si>
+    <t>vous rétrograderez</t>
+  </si>
+  <si>
+    <t>vous rembourserez</t>
+  </si>
+  <si>
+    <t>vous retiendrez</t>
+  </si>
+  <si>
+    <t>vous vous tiendrez</t>
+  </si>
+  <si>
+    <t>ils/elles rétrograderont</t>
+  </si>
+  <si>
+    <t>ils/elles rembourseront</t>
+  </si>
+  <si>
+    <t>ils/elles retiendront</t>
+  </si>
+  <si>
+    <t>ils/elles se tiendront</t>
+  </si>
+  <si>
+    <t>j'ai rétrogradé</t>
+  </si>
+  <si>
+    <t>j'ai remboursé</t>
+  </si>
+  <si>
+    <t>j'ai retenu</t>
+  </si>
+  <si>
+    <t>je me suis tenu</t>
+  </si>
+  <si>
+    <t>tu as rétrogradé</t>
+  </si>
+  <si>
+    <t>tu as remboursé</t>
+  </si>
+  <si>
+    <t>tu as retenu</t>
+  </si>
+  <si>
+    <t>tu t'es tenu</t>
+  </si>
+  <si>
+    <t>il/elle a rétrogradé</t>
+  </si>
+  <si>
+    <t>il/elle a remboursé</t>
+  </si>
+  <si>
+    <t>il/elle a retenu</t>
+  </si>
+  <si>
+    <t>il s'est tenu/elle s'est tenue</t>
+  </si>
+  <si>
+    <t>nous avons rétrogradé</t>
+  </si>
+  <si>
+    <t>nous avons remboursé</t>
+  </si>
+  <si>
+    <t>nous avons retenu</t>
+  </si>
+  <si>
+    <t>nous nous sommes tenus</t>
+  </si>
+  <si>
+    <t>vous avez rétrogradé</t>
+  </si>
+  <si>
+    <t>vous avez remboursé</t>
+  </si>
+  <si>
+    <t>vous avez retenu</t>
+  </si>
+  <si>
+    <t>vous vous êtes tenus</t>
+  </si>
+  <si>
+    <t>ils/elles ont rétrogradé</t>
+  </si>
+  <si>
+    <t>ils/elles ont remboursé</t>
+  </si>
+  <si>
+    <t>ils/elles ont retenu</t>
+  </si>
+  <si>
+    <t>ils se sont tenus/elles se sont tenues</t>
+  </si>
+  <si>
+    <t>j'avais rétrogradé</t>
+  </si>
+  <si>
+    <t>j'avais remboursé</t>
+  </si>
+  <si>
+    <t>j'avais retenu</t>
+  </si>
+  <si>
+    <t>je m'étais tenu</t>
+  </si>
+  <si>
+    <t>tu avais rétrogradé</t>
+  </si>
+  <si>
+    <t>tu avais remboursé</t>
+  </si>
+  <si>
+    <t>tu avais retenu</t>
+  </si>
+  <si>
+    <t>tu t'étais tenu</t>
+  </si>
+  <si>
+    <t>il/elle avait rétrogradé</t>
+  </si>
+  <si>
+    <t>il/elle avait remboursé</t>
+  </si>
+  <si>
+    <t>il/elle avait retenu</t>
+  </si>
+  <si>
+    <t>il s'était tenu/elle s'était tenue</t>
+  </si>
+  <si>
+    <t>nous avions rétrogradé</t>
+  </si>
+  <si>
+    <t>nous avions remboursé</t>
+  </si>
+  <si>
+    <t>nous avions retenu</t>
+  </si>
+  <si>
+    <t>nous nous étions tenus</t>
+  </si>
+  <si>
+    <t>vous aviez rétrogradé</t>
+  </si>
+  <si>
+    <t>vous aviez remboursé</t>
+  </si>
+  <si>
+    <t>vous aviez retenu</t>
+  </si>
+  <si>
+    <t>vous vous étiez tenus</t>
+  </si>
+  <si>
+    <t>ils/elles avaient rétrogradé</t>
+  </si>
+  <si>
+    <t>ils/elles avaient remboursé</t>
+  </si>
+  <si>
+    <t>ils/elles avaient retenu</t>
+  </si>
+  <si>
+    <t>ils s'étaient tenus/elles s'étaient tenues</t>
+  </si>
+  <si>
+    <t>j'aurai rétrogradé</t>
+  </si>
+  <si>
+    <t>j'aurai remboursé</t>
+  </si>
+  <si>
+    <t>j'aurai retenu</t>
+  </si>
+  <si>
+    <t>je me serai tenu</t>
+  </si>
+  <si>
+    <t>tu auras rétrogradé</t>
+  </si>
+  <si>
+    <t>tu auras remboursé</t>
+  </si>
+  <si>
+    <t>tu auras retenu</t>
+  </si>
+  <si>
+    <t>tu te seras tenu</t>
+  </si>
+  <si>
+    <t>il/elle aura rétrogradé</t>
+  </si>
+  <si>
+    <t>il/elle aura remboursé</t>
+  </si>
+  <si>
+    <t>il/elle aura retenu</t>
+  </si>
+  <si>
+    <t>il se sera tenu/elle se sera tenue</t>
+  </si>
+  <si>
+    <t>nous aurons rétrogradé</t>
+  </si>
+  <si>
+    <t>nous aurons remboursé</t>
+  </si>
+  <si>
+    <t>nous aurons retenu</t>
+  </si>
+  <si>
+    <t>nous nous serons tenus</t>
+  </si>
+  <si>
+    <t>vous aurez rétrogradé</t>
+  </si>
+  <si>
+    <t>vous aurez remboursé</t>
+  </si>
+  <si>
+    <t>vous aurez retenu</t>
+  </si>
+  <si>
+    <t>vous vous serez tenus</t>
+  </si>
+  <si>
+    <t>ils/elles auront rétrogradé</t>
+  </si>
+  <si>
+    <t>ils/elles auront remboursé</t>
+  </si>
+  <si>
+    <t>ils/elles auront retenu</t>
+  </si>
+  <si>
+    <t>ils se seront tenus/elles se seront tenues</t>
+  </si>
+  <si>
+    <t>que je rétrograde</t>
+  </si>
+  <si>
+    <t>que je rembourse</t>
+  </si>
+  <si>
+    <t>que je retienne</t>
+  </si>
+  <si>
+    <t>que je me tienne</t>
+  </si>
+  <si>
+    <t>que tu rétrogrades</t>
+  </si>
+  <si>
+    <t>que tu rembourses</t>
+  </si>
+  <si>
+    <t>que tu retiennes</t>
+  </si>
+  <si>
+    <t>que tu te tiennes</t>
+  </si>
+  <si>
+    <t>qu'il/elle rétrograde</t>
+  </si>
+  <si>
+    <t>qu'il/elle rembourse</t>
+  </si>
+  <si>
+    <t>qu'il/elle retienne</t>
+  </si>
+  <si>
+    <t>qu'il/elle se tienne</t>
+  </si>
+  <si>
+    <t>que nous rétrogradions</t>
+  </si>
+  <si>
+    <t>que nous remboursions</t>
+  </si>
+  <si>
+    <t>que nous retenions</t>
+  </si>
+  <si>
+    <t>que nous nous tenions</t>
+  </si>
+  <si>
+    <t>que vous rétrogradiez</t>
+  </si>
+  <si>
+    <t>que vous remboursiez</t>
+  </si>
+  <si>
+    <t>que vous reteniez</t>
+  </si>
+  <si>
+    <t>que vous vous teniez</t>
+  </si>
+  <si>
+    <t>qu'ils/elles rétrogradent</t>
+  </si>
+  <si>
+    <t>qu'ils/elles remboursent</t>
+  </si>
+  <si>
+    <t>qu'ils/elles retiennent</t>
+  </si>
+  <si>
+    <t>qu'ils/elles se tiennent</t>
+  </si>
+  <si>
+    <t>je rétrograderais</t>
+  </si>
+  <si>
+    <t>je rembourserais</t>
+  </si>
+  <si>
+    <t>je retiendrais</t>
+  </si>
+  <si>
+    <t>je me tiendrais</t>
+  </si>
+  <si>
+    <t>tu rétrograderais</t>
+  </si>
+  <si>
+    <t>tu rembourserais</t>
+  </si>
+  <si>
+    <t>tu retiendrais</t>
+  </si>
+  <si>
+    <t>tu te tiendrais</t>
+  </si>
+  <si>
+    <t>il/elle rétrograderait</t>
+  </si>
+  <si>
+    <t>il/elle rembourserait</t>
+  </si>
+  <si>
+    <t>il/elle retiendrait</t>
+  </si>
+  <si>
+    <t>il/elle se tiendrait</t>
+  </si>
+  <si>
+    <t>nous rétrograderions</t>
+  </si>
+  <si>
+    <t>nous rembourserions</t>
+  </si>
+  <si>
+    <t>nous retiendrions</t>
+  </si>
+  <si>
+    <t>nous nous tiendrions</t>
+  </si>
+  <si>
+    <t>vous rétrograderiez</t>
+  </si>
+  <si>
+    <t>vous rembourseriez</t>
+  </si>
+  <si>
+    <t>vous retiendriez</t>
+  </si>
+  <si>
+    <t>vous vous tiendriez</t>
+  </si>
+  <si>
+    <t>ils/elles rétrograderaient</t>
+  </si>
+  <si>
+    <t>ils/elles rembourseraient</t>
+  </si>
+  <si>
+    <t>ils/elles retiendraient</t>
+  </si>
+  <si>
+    <t>ils/elles se tiendraient</t>
+  </si>
+  <si>
+    <t>j'aurais rétrogradé</t>
+  </si>
+  <si>
+    <t>j'aurais remboursé</t>
+  </si>
+  <si>
+    <t>j'aurais retenu</t>
+  </si>
+  <si>
+    <t>je me serais tenu</t>
+  </si>
+  <si>
+    <t>tu aurais rétrogradé</t>
+  </si>
+  <si>
+    <t>tu aurais remboursé</t>
+  </si>
+  <si>
+    <t>tu aurais retenu</t>
+  </si>
+  <si>
+    <t>tu te serais tenu</t>
+  </si>
+  <si>
+    <t>il/elle aurait rétrogradé</t>
+  </si>
+  <si>
+    <t>il/elle aurait remboursé</t>
+  </si>
+  <si>
+    <t>il/elle aurait retenu</t>
+  </si>
+  <si>
+    <t>il se serait tenu/elle se serait tenue</t>
+  </si>
+  <si>
+    <t>nous aurions rétrogradé</t>
+  </si>
+  <si>
+    <t>nous aurions remboursé</t>
+  </si>
+  <si>
+    <t>nous aurions retenu</t>
+  </si>
+  <si>
+    <t>nous nous serions tenus</t>
+  </si>
+  <si>
+    <t>vous auriez rétrogradé</t>
+  </si>
+  <si>
+    <t>vous auriez remboursé</t>
+  </si>
+  <si>
+    <t>vous auriez retenu</t>
+  </si>
+  <si>
+    <t>vous vous seriez tenus</t>
+  </si>
+  <si>
+    <t>ils/elles auraient rétrogradé</t>
+  </si>
+  <si>
+    <t>ils/elles auraient remboursé</t>
+  </si>
+  <si>
+    <t>ils/elles auraient retenu</t>
+  </si>
+  <si>
+    <t>ils se seraient tenus/elles se seraient tenues</t>
   </si>
 </sst>
 </file>
@@ -551,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DL2"/>
+  <dimension ref="A1:DL5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -912,349 +1434,1399 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>154</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>162</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>170</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>178</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>182</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>186</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>190</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>194</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>198</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>202</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>206</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>214</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>218</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>222</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>226</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>230</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:116">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>159</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>163</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>167</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>179</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>191</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>195</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>199</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>203</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>207</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>5</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>211</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>5</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>215</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>5</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>219</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>5</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>227</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>231</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:116">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>140</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>144</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>152</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>160</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>168</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>172</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>176</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>180</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>188</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>192</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>196</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>200</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>204</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>208</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>5</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>212</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>5</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>216</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>5</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>220</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>5</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>228</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>232</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:116">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="X2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU2" t="s">
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="AV2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC2" t="s">
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
         <v>29</v>
       </c>
-      <c r="BD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="BL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS2" t="s">
+      <c r="P5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s">
         <v>37</v>
       </c>
-      <c r="BT2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>38</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>40</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA2" t="s">
+      <c r="R5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s">
         <v>41</v>
       </c>
-      <c r="CB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>42</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>43</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>44</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI2" t="s">
+      <c r="T5" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" t="s">
         <v>45</v>
       </c>
-      <c r="CJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>46</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>47</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>48</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CQ2" t="s">
+      <c r="V5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" t="s">
         <v>49</v>
       </c>
-      <c r="CR2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>50</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>51</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>52</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>2</v>
-      </c>
-      <c r="CY2" t="s">
+      <c r="X5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="s">
         <v>53</v>
       </c>
-      <c r="CZ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>54</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>55</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>56</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DG2" t="s">
+      <c r="Z5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5" t="s">
         <v>57</v>
       </c>
-      <c r="DH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>58</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>59</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>2</v>
+      <c r="AB5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>149</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>161</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>165</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>169</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>173</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>177</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>185</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>189</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>197</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>201</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>205</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>5</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>209</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>5</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>213</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>5</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>217</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>5</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>221</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>5</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>229</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>233</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
